--- a/RCS/INTEVLogger Bill of Materials.xlsx
+++ b/RCS/INTEVLogger Bill of Materials.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13584" windowHeight="6384"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="13584" windowHeight="6384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,6 +385,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -420,6 +437,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RCS/INTEVLogger Bill of Materials.xlsx
+++ b/RCS/INTEVLogger Bill of Materials.xlsx
@@ -154,9 +154,6 @@
     <t>https://www.adafruit.com/products/1660?gclid=CKetvaHWx9ECFZCFswodQrwH7A</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/STMicroelectronics/LD1117S33TR/?qs=sGAEpiMZZMsGz1a6aV8DcHVV3GbGTRBLlHGme9sz3%252bI%3d</t>
-  </si>
-  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/ALPS/SKPMANE010/?qs=m0BA540hBPdOXU%252bNv5vyYw%3D%3D</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Taiwan-Semiconductor/TS2937CW33/?qs=sGAEpiMZZMsGz1a6aV8DcGFffGRbHdVDPcUV0DMLjS4%3d</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,56 +862,53 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>